--- a/reports/resnet18_23_no_MMTM/prediction/1/prediction_train_1.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/1/prediction_train_1.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
